--- a/BWTracker_v0.xlsx
+++ b/BWTracker_v0.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +99,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -122,19 +122,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -230,6 +261,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -265,6 +313,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -443,24 +508,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BB5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="7" width="9.140625" style="2"/>
+    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="2"/>
+    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13" style="2" customWidth="1"/>
     <col min="11" max="11" width="11.7109375" style="2" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" style="2" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
     <col min="14" max="14" width="16" style="2" customWidth="1"/>
     <col min="15" max="15" width="24.5703125" style="2" customWidth="1"/>
     <col min="16" max="16" width="19.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.28515625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="23.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" style="2" customWidth="1"/>
     <col min="19" max="19" width="27.42578125" style="2" customWidth="1"/>
     <col min="20" max="16384" width="9.140625" style="2"/>
@@ -606,7 +673,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:54" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:54" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="D5" s="3"/>
     </row>

--- a/BWTracker_v0.xlsx
+++ b/BWTracker_v0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>day</t>
   </si>
@@ -49,12 +49,6 @@
     <t>duration</t>
   </si>
   <si>
-    <t>outermost task</t>
-  </si>
-  <si>
-    <t>innermost task</t>
-  </si>
-  <si>
     <t>task path</t>
   </si>
   <si>
@@ -68,6 +62,32 @@
   </si>
   <si>
     <t>mental health</t>
+  </si>
+  <si>
+    <t>w</t>
+  </si>
+  <si>
+    <t>job</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>Get The 3 Best Books For The Defined Goal</t>
+  </si>
+  <si>
+    <t>2:00:20</t>
+  </si>
+  <si>
+    <t>_Know the goal: to perform CFD simulation to verify thermal management of M31 PS in 400 hrs
+_Search for recommendation
+_Sumarize essential modules</t>
+  </si>
+  <si>
+    <t>4:50:00</t>
+  </si>
+  <si>
+    <t>week</t>
   </si>
 </sst>
 </file>
@@ -154,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -166,6 +186,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -509,23 +538,22 @@
   <dimension ref="A1:BB5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="X10" sqref="X10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="12.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" style="2" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="13" style="2" customWidth="1"/>
-    <col min="11" max="11" width="11.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="20.42578125" style="2" customWidth="1"/>
+    <col min="1" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="12.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="2" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="2" customWidth="1"/>
+    <col min="11" max="11" width="13" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
     <col min="14" max="14" width="16" style="2" customWidth="1"/>
-    <col min="15" max="15" width="24.5703125" style="2" customWidth="1"/>
+    <col min="15" max="15" width="45.7109375" style="2" customWidth="1"/>
     <col min="16" max="16" width="19.28515625" style="2" customWidth="1"/>
     <col min="17" max="17" width="23.42578125" style="2" customWidth="1"/>
     <col min="18" max="18" width="18.42578125" style="2" customWidth="1"/>
@@ -547,46 +575,46 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="AA1" s="1">
         <v>0</v>
@@ -673,9 +701,121 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:54" s="4" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4">
+        <v>5</v>
+      </c>
+      <c r="D2" s="4">
+        <v>17</v>
+      </c>
+      <c r="E2" s="4">
+        <v>20</v>
+      </c>
+      <c r="F2" s="4">
+        <v>9</v>
+      </c>
+      <c r="G2" s="4">
+        <v>55</v>
+      </c>
+      <c r="H2" s="4">
+        <v>0</v>
+      </c>
+      <c r="I2" s="4">
+        <v>11</v>
+      </c>
+      <c r="J2" s="4">
+        <v>55</v>
+      </c>
+      <c r="K2" s="4">
+        <v>20</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P2" s="4">
+        <v>0.3</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="R2" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="4">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4">
+        <v>5</v>
+      </c>
+      <c r="D3" s="4">
+        <v>17</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4">
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>18</v>
+      </c>
+      <c r="J3" s="4">
+        <v>20</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="AA3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BWTracker_v0.xlsx
+++ b/BWTracker_v0.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17726"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BWTracker" sheetId="1" r:id="rId1"/>
+    <sheet name="KeyHierarchy" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>day</t>
   </si>
@@ -49,51 +50,31 @@
     <t>duration</t>
   </si>
   <si>
-    <t>task path</t>
-  </si>
-  <si>
-    <t>further description</t>
-  </si>
-  <si>
-    <t>concentration</t>
-  </si>
-  <si>
-    <t>physical health</t>
-  </si>
-  <si>
-    <t>mental health</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
     <t>job</t>
   </si>
   <si>
-    <t>task</t>
-  </si>
-  <si>
-    <t>Get The 3 Best Books For The Defined Goal</t>
-  </si>
-  <si>
-    <t>2:00:20</t>
-  </si>
-  <si>
-    <t>_Know the goal: to perform CFD simulation to verify thermal management of M31 PS in 400 hrs
-_Search for recommendation
-_Sumarize essential modules</t>
-  </si>
-  <si>
-    <t>4:50:00</t>
-  </si>
-  <si>
     <t>week</t>
+  </si>
+  <si>
+    <t>task description</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>parent key</t>
+  </si>
+  <si>
+    <t>more information</t>
+  </si>
+  <si>
+    <t>key description</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -174,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -188,14 +169,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -290,23 +286,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -342,23 +321,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -535,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB5"/>
+  <dimension ref="A1:EL5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X10" sqref="X10"/>
+      <selection activeCell="N1" sqref="N1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,16 +514,11 @@
     <col min="11" max="11" width="13" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" style="3" customWidth="1"/>
     <col min="13" max="13" width="21.5703125" style="2" customWidth="1"/>
-    <col min="14" max="14" width="16" style="2" customWidth="1"/>
-    <col min="15" max="15" width="45.7109375" style="2" customWidth="1"/>
-    <col min="16" max="16" width="19.28515625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="23.42578125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="27.42578125" style="2" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="2"/>
+    <col min="14" max="14" width="45.7109375" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:142" s="1" customFormat="1" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,7 +532,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>4</v>
@@ -595,225 +552,409 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>10</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+      <c r="P1" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>2</v>
+      </c>
+      <c r="R1" s="1">
+        <v>3</v>
+      </c>
+      <c r="S1" s="1">
+        <v>4</v>
+      </c>
+      <c r="T1" s="1">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1">
+        <v>6</v>
+      </c>
+      <c r="V1" s="1">
+        <v>7</v>
+      </c>
+      <c r="W1" s="1">
+        <v>8</v>
+      </c>
+      <c r="X1" s="1">
+        <v>9</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>10</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>11</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>12</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>14</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>15</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>16</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>17</v>
+      </c>
+      <c r="AG1" s="1">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>0</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>2</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>3</v>
-      </c>
-      <c r="AE1" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF1" s="1">
-        <v>5</v>
-      </c>
-      <c r="AG1" s="1">
-        <v>6</v>
-      </c>
       <c r="AH1" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="AI1" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="AJ1" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AK1" s="1">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AL1" s="1">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AM1" s="1">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AN1" s="1">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AO1" s="1">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="AP1" s="1">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="AQ1" s="1">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AR1" s="1">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AS1" s="1">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="AT1" s="1">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="AU1" s="1">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AV1" s="1">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="AW1" s="1">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="AX1" s="1">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AY1" s="1">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="AZ1" s="1">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="BA1" s="1">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="BB1" s="1">
-        <v>27</v>
+        <v>39</v>
+      </c>
+      <c r="BC1" s="1">
+        <v>40</v>
+      </c>
+      <c r="BD1" s="1">
+        <v>41</v>
+      </c>
+      <c r="BE1" s="1">
+        <v>42</v>
+      </c>
+      <c r="BF1" s="1">
+        <v>43</v>
+      </c>
+      <c r="BG1" s="1">
+        <v>44</v>
+      </c>
+      <c r="BH1" s="1">
+        <v>45</v>
+      </c>
+      <c r="BI1" s="1">
+        <v>46</v>
+      </c>
+      <c r="BJ1" s="1">
+        <v>47</v>
+      </c>
+      <c r="BK1" s="1">
+        <v>48</v>
+      </c>
+      <c r="BL1" s="1">
+        <v>49</v>
+      </c>
+      <c r="BM1" s="1">
+        <v>50</v>
+      </c>
+      <c r="BN1" s="1">
+        <v>51</v>
+      </c>
+      <c r="BO1" s="1">
+        <v>52</v>
+      </c>
+      <c r="BP1" s="1">
+        <v>53</v>
+      </c>
+      <c r="BQ1" s="1">
+        <v>54</v>
+      </c>
+      <c r="BR1" s="1">
+        <v>55</v>
+      </c>
+      <c r="BS1" s="1">
+        <v>56</v>
+      </c>
+      <c r="BT1" s="1">
+        <v>57</v>
+      </c>
+      <c r="BU1" s="1">
+        <v>58</v>
+      </c>
+      <c r="BV1" s="1">
+        <v>59</v>
+      </c>
+      <c r="BW1" s="1">
+        <v>60</v>
+      </c>
+      <c r="BX1" s="1">
+        <v>61</v>
+      </c>
+      <c r="BY1" s="1">
+        <v>62</v>
+      </c>
+      <c r="BZ1" s="1">
+        <v>63</v>
+      </c>
+      <c r="CA1" s="1">
+        <v>64</v>
+      </c>
+      <c r="CB1" s="1">
+        <v>65</v>
+      </c>
+      <c r="CC1" s="1">
+        <v>66</v>
+      </c>
+      <c r="CD1" s="1">
+        <v>67</v>
+      </c>
+      <c r="CE1" s="1">
+        <v>68</v>
+      </c>
+      <c r="CF1" s="1">
+        <v>69</v>
+      </c>
+      <c r="CG1" s="1">
+        <v>70</v>
+      </c>
+      <c r="CH1" s="1">
+        <v>71</v>
+      </c>
+      <c r="CI1" s="1">
+        <v>72</v>
+      </c>
+      <c r="CJ1" s="1">
+        <v>73</v>
+      </c>
+      <c r="CK1" s="1">
+        <v>74</v>
+      </c>
+      <c r="CL1" s="1">
+        <v>75</v>
+      </c>
+      <c r="CM1" s="1">
+        <v>76</v>
+      </c>
+      <c r="CN1" s="1">
+        <v>77</v>
+      </c>
+      <c r="CO1" s="1">
+        <v>78</v>
+      </c>
+      <c r="CP1" s="1">
+        <v>79</v>
+      </c>
+      <c r="CQ1" s="1">
+        <v>80</v>
+      </c>
+      <c r="CR1" s="1">
+        <v>81</v>
+      </c>
+      <c r="CS1" s="1">
+        <v>82</v>
+      </c>
+      <c r="CT1" s="1">
+        <v>83</v>
+      </c>
+      <c r="CU1" s="1">
+        <v>84</v>
+      </c>
+      <c r="CV1" s="1">
+        <v>85</v>
+      </c>
+      <c r="CW1" s="1">
+        <v>86</v>
+      </c>
+      <c r="CX1" s="1">
+        <v>87</v>
+      </c>
+      <c r="CY1" s="1">
+        <v>88</v>
+      </c>
+      <c r="CZ1" s="1">
+        <v>89</v>
+      </c>
+      <c r="DA1" s="1">
+        <v>90</v>
+      </c>
+      <c r="DB1" s="1">
+        <v>91</v>
+      </c>
+      <c r="DC1" s="1">
+        <v>92</v>
+      </c>
+      <c r="DD1" s="1">
+        <v>93</v>
+      </c>
+      <c r="DE1" s="1">
+        <v>94</v>
+      </c>
+      <c r="DF1" s="1">
+        <v>95</v>
+      </c>
+      <c r="DG1" s="1">
+        <v>96</v>
+      </c>
+      <c r="DH1" s="1">
+        <v>97</v>
+      </c>
+      <c r="DI1" s="1">
+        <v>98</v>
+      </c>
+      <c r="DJ1" s="1">
+        <v>99</v>
+      </c>
+      <c r="DK1" s="1">
+        <v>100</v>
+      </c>
+      <c r="DL1" s="1">
+        <v>101</v>
+      </c>
+      <c r="DM1" s="1">
+        <v>102</v>
+      </c>
+      <c r="DN1" s="1">
+        <v>103</v>
+      </c>
+      <c r="DO1" s="1">
+        <v>104</v>
+      </c>
+      <c r="DP1" s="1">
+        <v>105</v>
+      </c>
+      <c r="DQ1" s="1">
+        <v>106</v>
+      </c>
+      <c r="DR1" s="1">
+        <v>107</v>
+      </c>
+      <c r="DS1" s="1">
+        <v>108</v>
+      </c>
+      <c r="DT1" s="1">
+        <v>109</v>
+      </c>
+      <c r="DU1" s="1">
+        <v>110</v>
+      </c>
+      <c r="DV1" s="1">
+        <v>111</v>
+      </c>
+      <c r="DW1" s="1">
+        <v>112</v>
+      </c>
+      <c r="DX1" s="1">
+        <v>113</v>
+      </c>
+      <c r="DY1" s="1">
+        <v>114</v>
+      </c>
+      <c r="DZ1" s="1">
+        <v>115</v>
+      </c>
+      <c r="EA1" s="1">
+        <v>116</v>
+      </c>
+      <c r="EB1" s="1">
+        <v>117</v>
+      </c>
+      <c r="EC1" s="1">
+        <v>118</v>
+      </c>
+      <c r="ED1" s="1">
+        <v>119</v>
+      </c>
+      <c r="EE1" s="1">
+        <v>120</v>
+      </c>
+      <c r="EF1" s="1">
+        <v>121</v>
+      </c>
+      <c r="EG1" s="1">
+        <v>122</v>
+      </c>
+      <c r="EH1" s="1">
+        <v>123</v>
+      </c>
+      <c r="EI1" s="1">
+        <v>124</v>
+      </c>
+      <c r="EJ1" s="1">
+        <v>125</v>
+      </c>
+      <c r="EK1" s="1">
+        <v>126</v>
+      </c>
+      <c r="EL1" s="1">
+        <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:54" s="4" customFormat="1" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4">
-        <v>17</v>
-      </c>
-      <c r="C2" s="4">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
-        <v>17</v>
-      </c>
-      <c r="E2" s="4">
-        <v>20</v>
-      </c>
-      <c r="F2" s="4">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4">
-        <v>55</v>
-      </c>
-      <c r="H2" s="4">
-        <v>0</v>
-      </c>
-      <c r="I2" s="4">
-        <v>11</v>
-      </c>
-      <c r="J2" s="4">
-        <v>55</v>
-      </c>
-      <c r="K2" s="4">
-        <v>20</v>
-      </c>
-      <c r="L2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P2" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0.9</v>
-      </c>
-      <c r="AA2" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="2" spans="1:142" s="4" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="6"/>
+      <c r="N2" s="8"/>
     </row>
-    <row r="3" spans="1:54" s="4" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4">
-        <v>17</v>
-      </c>
-      <c r="C3" s="4">
-        <v>5</v>
-      </c>
-      <c r="D3" s="4">
-        <v>17</v>
-      </c>
-      <c r="E3" s="4">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4">
-        <v>13</v>
-      </c>
-      <c r="G3" s="4">
-        <v>30</v>
-      </c>
-      <c r="H3" s="4">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4">
-        <v>18</v>
-      </c>
-      <c r="J3" s="4">
-        <v>20</v>
-      </c>
-      <c r="K3" s="4">
-        <v>0</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="P3" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0.5</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0.7</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>17</v>
-      </c>
+    <row r="3" spans="1:142" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="6"/>
+      <c r="N3" s="7"/>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:142" x14ac:dyDescent="0.25">
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
@@ -821,4 +962,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13" style="9" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" style="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>